--- a/medicine/Handicap/Orthopédagogie/Orthopédagogie.xlsx
+++ b/medicine/Handicap/Orthopédagogie/Orthopédagogie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orthop%C3%A9dagogie</t>
+          <t>Orthopédagogie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orthop%C3%A9dagogie</t>
+          <t>Orthopédagogie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,18 +520,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie du mot orthopédagogie
-Composé des morphèmes ortho &amp; pédagogie
+          <t>Étymologie du mot orthopédagogie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Composé des morphèmes ortho &amp; pédagogie
 ortho : du grec ancien orthos « droit », au sens figuré « correct »
 pédagogie : du grec paidagôgia, science de l'éducation des enfants, et par extension de la formation intellectuelle des adultes (Petit Robert, 2010)
-La pédagogie concerne les interventions de l'enseignant (Legendre, 2005).
-Définition adoptée par L'Association des orthopédagogues du Québec
-L'orthopédagogie est la science[1] de l'éducation dont l'objet est l'évaluation et l'intervention relatives aux apprenants[2] susceptibles de présenter ou présentant des difficultés d'apprentissage scolaire, incluant les troubles d'apprentissage. Sa pratique prend appui sur la recherche en orthodidactique, en didactique, en pédagogie et en sciences cognitives.
-L'évaluation orthopédagogique consiste à préciser les difficultés que présente l'apprenant sur le plan des connaissances, des stratégies et des processus cognitifs, principalement en lecture, en écriture et en mathématique. Elle inclut le dépistage des apprenants pouvant présenter des difficultés d'apprentissage. L'évaluation orthopédagogique considère également d'autres facteurs susceptibles d'influencer l'apprentissage, soit des facteurs affectifs et motivationnels, sociofamiliaux et scolaires, notamment les approches pédagogiques.
-S’appuyant sur les conclusions  évaluatives, l’intervention orthopédagogique a des visées préventives ou rééducatives de nature corrective ou compensatoire, afin de permettre à l'apprenant de progresser de façon optimale sur le plan des apprentissages scolaires en lecture, en écriture et en mathématiques. Elle s’adresse directement à l’apprenant et implique une collaboration avec les intervenants concernés (enseignants, parents, professionnels...)[3].
-L'orthopédagogie en France
-L'orthopédagogie, en France, est une pratique pédagogique personnalisée. Elle met en lumière et déploie les stratégies cognitives, affectives, sensorielles et comportementales dans tout acte d'apprendre? L'orthopédagogie encourage chaque individu à s'approprier son unicité, à intégrer ses différences pour comprendre les mécanismes de sa personnalité. Elle lui permet sciemment d'interagir avec son entourage et de s'adapter à son environnement.
-</t>
+La pédagogie concerne les interventions de l'enseignant (Legendre, 2005).</t>
         </is>
       </c>
     </row>
@@ -529,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orthop%C3%A9dagogie</t>
+          <t>Orthopédagogie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +554,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Définition contemporaine de l'orthopédagogie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Définition adoptée par L'Association des orthopédagogues du Québec</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orthopédagogie est la science de l'éducation dont l'objet est l'évaluation et l'intervention relatives aux apprenants susceptibles de présenter ou présentant des difficultés d'apprentissage scolaire, incluant les troubles d'apprentissage. Sa pratique prend appui sur la recherche en orthodidactique, en didactique, en pédagogie et en sciences cognitives.
+L'évaluation orthopédagogique consiste à préciser les difficultés que présente l'apprenant sur le plan des connaissances, des stratégies et des processus cognitifs, principalement en lecture, en écriture et en mathématique. Elle inclut le dépistage des apprenants pouvant présenter des difficultés d'apprentissage. L'évaluation orthopédagogique considère également d'autres facteurs susceptibles d'influencer l'apprentissage, soit des facteurs affectifs et motivationnels, sociofamiliaux et scolaires, notamment les approches pédagogiques.
+S’appuyant sur les conclusions  évaluatives, l’intervention orthopédagogique a des visées préventives ou rééducatives de nature corrective ou compensatoire, afin de permettre à l'apprenant de progresser de façon optimale sur le plan des apprentissages scolaires en lecture, en écriture et en mathématiques. Elle s’adresse directement à l’apprenant et implique une collaboration avec les intervenants concernés (enseignants, parents, professionnels...).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orthopédagogie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définition contemporaine de l'orthopédagogie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'orthopédagogie en France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orthopédagogie, en France, est une pratique pédagogique personnalisée. Elle met en lumière et déploie les stratégies cognitives, affectives, sensorielles et comportementales dans tout acte d'apprendre? L'orthopédagogie encourage chaque individu à s'approprier son unicité, à intégrer ses différences pour comprendre les mécanismes de sa personnalité. Elle lui permet sciemment d'interagir avec son entourage et de s'adapter à son environnement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orthopédagogie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>L'orthopédagogue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Spécialisé dans les apprentissages, l’orthopédagogue accompagne tout apprenant animé par le désir d’atteindre des objectifs scolaires, professionnels et/ou personnels. 
 L’orthopédagogue est un professionnel, qui a intégré des savoirs actualisés au regard des recherches et des pratiques reconnues et validées. 
@@ -562,31 +650,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orthopédagogie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Formation de l'orthopédagogue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin de proposer un accompagnement adapté et personnalisé, l’orthopédagogue a suivi un cursus de formation socle composé des fondamentaux établis selon le référentiel de compétences de l’orthopédagogue :
 • Les approches pédagogiques, 
@@ -600,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Orthopédagogie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Compétences et posture de l'orthopédagogue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En toute neutralité, l’orthopédagogue prend en compte l’environnement, les motivations et les besoins de chaque personne.
 Par une écoute attentive et empathique, l’orthopédagogue favorise un climat de confiance dans lequel l’apprenant se sent libre d’évoluer et d’agir en toute conscience.
@@ -636,31 +728,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orthopédagogie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Champs d'actions de l'orthopédagogue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L’orthopédagogue s’assure du plein engagement libre et réel de chaque apprenant.
 L’orthopédagogue :
@@ -674,31 +768,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orthopédagogie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Public concerné par l'orthopédagogie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L’orthopédagogue rencontre tout apprenant désireux de parfaire l’acte d’apprendre.
 Cela concerne aussi bien :
@@ -712,31 +808,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Orthopédagogie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Cadre d'intervention de l'orthopédagogue</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">− Cabinet privé
 − Domicile de l’Apprenant
@@ -749,31 +847,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Orthopédagogie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orthop%C3%A9dagogie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Autres définitions</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orthopédagogie est aussi définie par l'ensemble des méthodes et procédés d'enseignement qui visent à permettre aux enfants, aux adolescents et aux adultes aux prises avec des difficultés ou des troubles d'apprentissage, de pallier ces entraves et de développer au mieux leurs potentialités. 
 Le rôle de l'orthopédagogue consiste à prévenir l'apparition ou compenser certains troubles en identifiant tout d'abord certaines difficultés pouvant faire obstacle aux apprentissages de l'élève. Il doit donc évaluer les capacités de celui-ci afin d'en détecter les éléments à travailler. Il pourra ensuite intervenir auprès de l'élève en difficulté en lui fournissant des stratégies pédagogiques appropriées. Ce travail mené en collaboration entre l'orthopédagogue et l'élève l'aidera à compenser certaines situations d'apprentissage qui lui sont  problématiques et qui entravent son bon cheminement scolaire. L'orthopédagogue intervient lorsque des difficultés scolaires sont persistantes. Il.elle aide à la rédaction d'un plan d'accompagnement personnalisé (PAP) ou un programme personnalisé de réussite éducative (PPRE). 
